--- a/Documents/2. 주간보고서/1주차/일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1주차/일일업무/일일 업무 - 김건승.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\2. 주간보고서\1주차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6012AB3-C838-4641-8589-8DEF55AB090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97441779-B6C5-438C-8EB0-B0C663DAAEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="390" windowWidth="15435" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023.01.23" sheetId="1" r:id="rId1"/>
+    <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="2023.01.23" sheetId="1" r:id="rId2"/>
+    <sheet name="2023.01.24" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +26,70 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+  <si>
+    <t>작업 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의 참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 맵 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트 계획서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 계획서 초안 작성 및 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구 분석서 명세서 작성중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기능적 요구사항 정의 괜찮나요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구 분석서 홈화면 ui로 옮기는게 나을것같아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +104,58 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="나눔고딕 ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -58,12 +163,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -343,16 +582,577 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A7CD15-D38D-45CF-A26B-62154257E3D1}">
+  <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2E1D05-84AC-4176-8C24-A60B89D4393D}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/2. 주간보고서/1주차/일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1주차/일일업무/일일 업무 - 김건승.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97441779-B6C5-438C-8EB0-B0C663DAAEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA23FE3-0D2A-491E-A739-74FCD731C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="2023.01.23" sheetId="1" r:id="rId2"/>
     <sheet name="2023.01.24" sheetId="2" r:id="rId3"/>
+    <sheet name="2023.01.25" sheetId="4" r:id="rId4"/>
+    <sheet name="2023.01.26" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">프로젝트 계획서 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,27 +59,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회의참여</t>
+    <t>git사용법 숙지중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 계획서 초안 작성 및 제출</t>
+    <t>요구분석서 명세서 진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구 분석서 명세서 작성중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비기능적 요구사항 정의 괜찮나요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구 분석서 홈화면 ui로 옮기는게 나을것같아요</t>
+    <t>요구분석서 명세서 진행중 유스케이스 명세서 진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +751,7 @@
   <dimension ref="B2:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:M3"/>
+      <selection activeCell="B2" sqref="B2:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -814,7 +800,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" s="7"/>
     </row>
@@ -836,7 +822,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" s="7"/>
     </row>
@@ -845,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -858,7 +844,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" s="7"/>
     </row>
@@ -866,7 +852,9 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -877,7 +865,9 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="2:15">
@@ -954,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2E1D05-84AC-4176-8C24-A60B89D4393D}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -991,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1004,7 +994,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" s="7"/>
     </row>
@@ -1013,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1026,7 +1016,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" s="7"/>
     </row>
@@ -1035,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1048,7 +1038,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O5" s="7"/>
     </row>
@@ -1056,7 +1046,9 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1067,7 +1059,9 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="2:15">
@@ -1125,17 +1119,427 @@
       <c r="O9" s="2"/>
     </row>
     <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C5:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DEACF1-CE2B-4A80-B95C-D7EEA01DB237}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03865E17-540B-4192-9E5E-EEEE3F467D17}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>

--- a/Documents/2. 주간보고서/1주차/일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/2. 주간보고서/1주차/일일업무/일일 업무 - 김건승.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kgs\EzenDongstagram\Documents\2. 주간보고서\1주차\일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA23FE3-0D2A-491E-A739-74FCD731C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23409194-3DA8-4D14-860A-B99C5165CBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2023.01.23" sheetId="1" r:id="rId2"/>
-    <sheet name="2023.01.24" sheetId="2" r:id="rId3"/>
-    <sheet name="2023.01.25" sheetId="4" r:id="rId4"/>
-    <sheet name="2023.01.26" sheetId="6" r:id="rId5"/>
+    <sheet name="2024.01.23" sheetId="1" r:id="rId2"/>
+    <sheet name="2024.01.24" sheetId="2" r:id="rId3"/>
+    <sheet name="2024.01.25" sheetId="4" r:id="rId4"/>
+    <sheet name="2024.01.26" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1358,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03865E17-540B-4192-9E5E-EEEE3F467D17}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
